--- a/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_APFA_ContractProfile_Regression_001.xlsx
+++ b/src/main/java/TestSuite/MDOT/Scenarios/MDOT/TS_PM_APFA_ContractProfile_Regression_001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdeepika\Documents\Rstars-Automation\src\main\java\TestSuite\MDOT\Scenarios\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B08DDA0-D9FC-4B22-8CE9-08178A775EBA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697BCCAF-2805-4E2B-AB5A-5E4ECB8A3DF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{397F6C8C-76D5-4724-9027-584DB73AF3FC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>BusinessModule</t>
   </si>
@@ -88,6 +88,60 @@
   </si>
   <si>
     <t>TC_PM_APFA_ListView_D2</t>
+  </si>
+  <si>
+    <t>Adding Valid data into the fields</t>
+  </si>
+  <si>
+    <t>TC_PM_APFA_ContractProfile_AddNewProfile</t>
+  </si>
+  <si>
+    <t>TC_PM_APFA_ContractProfile_EditProfile</t>
+  </si>
+  <si>
+    <t>BackToList</t>
+  </si>
+  <si>
+    <t>Validate back to list</t>
+  </si>
+  <si>
+    <t>Edit the profile</t>
+  </si>
+  <si>
+    <t>LastProcDateVerify</t>
+  </si>
+  <si>
+    <t>Verify Last Proc date</t>
+  </si>
+  <si>
+    <t>Nav_NextProfile_and_AddNewProfile</t>
+  </si>
+  <si>
+    <t>Open next profile</t>
+  </si>
+  <si>
+    <t>Adding New Profile Via Details Page</t>
+  </si>
+  <si>
+    <t>Recall_Confirm</t>
+  </si>
+  <si>
+    <t>Confirm Alert Box</t>
+  </si>
+  <si>
+    <t>TC_PM_APFA_DeleteProfile</t>
+  </si>
+  <si>
+    <t>Deleting the profile</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Login_Logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
   </si>
 </sst>
 </file>
@@ -159,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -168,6 +222,13 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -484,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A1E7EF-77D3-41B3-8B98-2D4334A55173}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,6 +678,226 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
         <v>1</v>
       </c>
     </row>
